--- a/Vanguard EU/Vanguard-ETFs-KostenBepaling.xlsx
+++ b/Vanguard EU/Vanguard-ETFs-KostenBepaling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Vanguard EU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1062" documentId="13_ncr:1_{383DE9F1-B669-4070-96E2-664D98CFDC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FC59109-6488-474F-BD54-616E5D75D707}"/>
+  <xr:revisionPtr revIDLastSave="1064" documentId="13_ncr:1_{383DE9F1-B669-4070-96E2-664D98CFDC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69D06FD4-6E3E-49EB-8414-AE0464945B0B}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VWRL" sheetId="13" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="100">
   <si>
     <t>Dividend income</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>Transaction costs</t>
+  </si>
+  <si>
+    <t>2023: index diff because of Russian stocks</t>
   </si>
 </sst>
 </file>
@@ -520,10 +523,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -791,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD89FDB9-F393-4A65-BDCD-E968CF6BDA63}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5666,11 +5665,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55271D4-8CAB-4791-86A4-56A1D92A09CA}">
-  <dimension ref="B1:R41"/>
+  <dimension ref="B1:T41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:N1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6265,7 +6262,7 @@
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
         <v>57</v>
       </c>
@@ -6309,7 +6306,7 @@
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
         <v>58</v>
       </c>
@@ -6352,7 +6349,7 @@
       <c r="O18" s="34"/>
       <c r="P18" s="35"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
         <v>11</v>
       </c>
@@ -6411,7 +6408,7 @@
       </c>
       <c r="R19" s="34"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
         <v>12</v>
       </c>
@@ -6469,8 +6466,11 @@
         <f>AVERAGE(C20:N20)</f>
         <v>-0.29583333333333323</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T20" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="s">
         <v>67</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
         <v>68</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
         <v>69</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="s">
         <v>11</v>
       </c>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="R26" s="34"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="33" t="s">
         <v>12</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>0.2724999999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>70</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="33" t="s">
         <v>71</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="33" t="s">
         <v>74</v>
       </c>
